--- a/excel/files_08_data_analysis/examples.xlsx
+++ b/excel/files_08_data_analysis/examples.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_bml-r/data_analysis_bml/excel/files_08_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3B6CB5D2-D69F-49A5-A383-7E44225A4FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13D61CAD-F303-4FB5-973E-77E1484CAC7D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{3B6CB5D2-D69F-49A5-A383-7E44225A4FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70ADC70C-A19D-4338-8EA3-9948862F4B05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{EECC7863-79BC-4C52-BFCC-4F50C68B49DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{EECC7863-79BC-4C52-BFCC-4F50C68B49DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Number of zebrafish</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Estimated total weight (g)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>fish</t>
   </si>
 </sst>
 </file>
@@ -547,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F980B24A-2D1D-4F43-8C3B-6534A31F12E8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -645,4 +652,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45A1A71-DB72-42FA-976D-493E2BD55101}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(SUM(B2:B5)&lt;100,SUM(B2:B5),"To many fish")</f>
+        <v>To many fish</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/files_08_data_analysis/examples.xlsx
+++ b/excel/files_08_data_analysis/examples.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hanzenl-my.sharepoint.com/personal/j_hageman_pl_hanze_nl/Documents/web_pages/data_analysis_bml-r/data_analysis_bml/excel/files_08_data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{3B6CB5D2-D69F-49A5-A383-7E44225A4FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70ADC70C-A19D-4338-8EA3-9948862F4B05}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{3B6CB5D2-D69F-49A5-A383-7E44225A4FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9A83CC-28D2-4C10-B35D-BA805349726F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{EECC7863-79BC-4C52-BFCC-4F50C68B49DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{EECC7863-79BC-4C52-BFCC-4F50C68B49DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>Number of zebrafish</t>
   </si>
@@ -74,6 +76,18 @@
   </si>
   <si>
     <t>fish</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t># Tanks with avarage fish weight overweight</t>
+  </si>
+  <si>
+    <t>Lookup Key</t>
+  </si>
+  <si>
+    <t>Result (lookup value)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +569,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45A1A71-DB72-42FA-976D-493E2BD55101}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -723,4 +737,200 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4D163E-A8BD-461C-9841-108A4462030E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D2" t="b">
+        <f>IF(C2&gt;0.12,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D5" si="0">IF(C3&gt;0.12,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.154</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(D2:D5,TRUE)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20BC361-D4A9-48D5-A402-0C7674805202}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>_xlfn.XLOOKUP(B8,B2:B5,C2:C5)</f>
+        <v>0.154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>